--- a/data/trans_orig/IMC_inf_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C631037-F35E-4F4B-992D-DF9A1AC1E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0E3CEF-B0DB-4228-AFC0-983B5065B912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73CE05BF-7D46-4E55-8489-A43C0AE78742}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F66A27DA-0016-4E87-8689-9A75E3DA5DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="369">
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2007 (Tasa respuesta: 84,27%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="365">
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2007 (Tasa respuesta: 84,27%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,52 +74,58 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
     <t>50,1%</t>
   </si>
   <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
   </si>
   <si>
     <t>50,06%</t>
   </si>
   <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
     <t>49,9%</t>
   </si>
   <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
   </si>
   <si>
     <t>49,94%</t>
   </si>
   <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,1024 +134,1006 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2012 (Tasa respuesta: 74,13%)</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2016 (Tasa respuesta: 77,23%)</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>61,14%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2012 (Tasa respuesta: 74,13%)</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
   </si>
   <si>
     <t>55,78%</t>
   </si>
   <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2016 (Tasa respuesta: 77,23%)</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
     <t>55,51%</t>
   </si>
   <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
   <si>
     <t>73,59%</t>
   </si>
   <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
   </si>
   <si>
     <t>44,73%</t>
   </si>
   <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2023 (Tasa respuesta: 84,22%)</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2023 (Tasa respuesta: 84,22%)</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>42,9%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D568DC27-BCD5-43EF-9B55-B0ED907858DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5BB185-5672-479F-9A89-7EA9265FB25C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1675,10 +1663,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>20551</v>
+        <v>15716</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1690,10 +1678,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>15716</v>
+        <v>20551</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1726,34 +1714,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15719</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
         <v>31</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>20466</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="7">
-        <v>15719</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -1762,13 +1750,13 @@
         <v>36186</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,34 +1765,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31435</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
         <v>62</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>41017</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7">
-        <v>48</v>
-      </c>
-      <c r="I6" s="7">
-        <v>31435</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>110</v>
@@ -1813,18 +1801,18 @@
         <v>72453</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1833,31 +1821,31 @@
         <v>155</v>
       </c>
       <c r="D7" s="7">
-        <v>103269</v>
+        <v>102632</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
       </c>
       <c r="I7" s="7">
-        <v>102632</v>
+        <v>103269</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>310</v>
@@ -1866,13 +1854,13 @@
         <v>205901</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,34 +1869,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>193</v>
+      </c>
+      <c r="D8" s="7">
+        <v>128770</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
         <v>190</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>125900</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="7">
-        <v>193</v>
-      </c>
-      <c r="I8" s="7">
-        <v>128770</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>383</v>
@@ -1917,13 +1905,13 @@
         <v>254670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,34 +1920,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>348</v>
+      </c>
+      <c r="D9" s="7">
+        <v>231402</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7">
         <v>345</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>229169</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="7">
-        <v>348</v>
-      </c>
-      <c r="I9" s="7">
-        <v>231402</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>693</v>
@@ -1968,13 +1956,13 @@
         <v>460571</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,10 +1973,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>67217</v>
+        <v>52162</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>48</v>
@@ -2000,10 +1988,10 @@
         <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>52162</v>
+        <v>67217</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>51</v>
@@ -2036,10 +2024,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D11" s="7">
-        <v>65846</v>
+        <v>72279</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>57</v>
@@ -2051,10 +2039,10 @@
         <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I11" s="7">
-        <v>72279</v>
+        <v>65846</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>60</v>
@@ -2087,34 +2075,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>186</v>
+      </c>
+      <c r="D12" s="7">
+        <v>124441</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7">
         <v>199</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>133063</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7">
-        <v>186</v>
-      </c>
-      <c r="I12" s="7">
-        <v>124441</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
         <v>385</v>
@@ -2123,13 +2111,13 @@
         <v>257503</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,10 +2128,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>83953</v>
+        <v>33215</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>67</v>
@@ -2155,10 +2143,10 @@
         <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="I13" s="7">
-        <v>33215</v>
+        <v>83953</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>70</v>
@@ -2191,10 +2179,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>118251</v>
+        <v>157579</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -2206,10 +2194,10 @@
         <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="I14" s="7">
-        <v>157579</v>
+        <v>118251</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2242,34 +2230,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>281</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190794</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7">
         <v>304</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>202204</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="7">
-        <v>281</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190794</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>585</v>
@@ -2278,13 +2266,13 @@
         <v>392998</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,10 +2283,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="D16" s="7">
-        <v>274990</v>
+        <v>203724</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -2310,10 +2298,10 @@
         <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="I16" s="7">
-        <v>203724</v>
+        <v>274990</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
@@ -2346,10 +2334,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="D17" s="7">
-        <v>330463</v>
+        <v>374348</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>94</v>
@@ -2361,10 +2349,10 @@
         <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="I17" s="7">
-        <v>374348</v>
+        <v>330463</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -2397,34 +2385,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>863</v>
+      </c>
+      <c r="D18" s="7">
+        <v>578072</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7">
         <v>910</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>605453</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="7">
-        <v>863</v>
-      </c>
-      <c r="I18" s="7">
-        <v>578072</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>1773</v>
@@ -2433,13 +2421,13 @@
         <v>1183525</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,7 +2452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D8570A-3336-4A40-A50D-51080A9510FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B05658-52F8-48CC-82A6-4F9F36CD28A9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2582,10 +2570,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>12868</v>
+        <v>15924</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>105</v>
@@ -2597,10 +2585,10 @@
         <v>107</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>15924</v>
+        <v>12868</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>108</v>
@@ -2633,10 +2621,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>14786</v>
+        <v>16090</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>114</v>
@@ -2648,10 +2636,10 @@
         <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>16090</v>
+        <v>14786</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>117</v>
@@ -2684,34 +2672,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7">
+        <v>32014</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
         <v>41</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>27654</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7">
-        <v>50</v>
-      </c>
-      <c r="I6" s="7">
-        <v>32014</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>91</v>
@@ -2720,27 +2708,27 @@
         <v>59668</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7">
-        <v>137547</v>
+        <v>91853</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>123</v>
@@ -2752,10 +2740,10 @@
         <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="I7" s="7">
-        <v>91853</v>
+        <v>137547</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>126</v>
@@ -2779,7 +2767,7 @@
         <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,34 +2776,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>157</v>
+      </c>
+      <c r="D8" s="7">
+        <v>108055</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="7">
         <v>123</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>88652</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="7">
-        <v>157</v>
-      </c>
-      <c r="I8" s="7">
-        <v>108055</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>280</v>
@@ -2824,13 +2812,13 @@
         <v>196707</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,34 +2827,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>288</v>
+      </c>
+      <c r="D9" s="7">
+        <v>199908</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7">
         <v>316</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>226199</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="7">
-        <v>288</v>
-      </c>
-      <c r="I9" s="7">
-        <v>199908</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>604</v>
@@ -2875,13 +2863,13 @@
         <v>426108</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,34 +2880,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7">
+        <v>72140</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="7">
         <v>100</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>69383</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H10" s="7">
-        <v>102</v>
-      </c>
-      <c r="I10" s="7">
-        <v>72140</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -2928,13 +2916,13 @@
         <v>141523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,34 +2931,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>94</v>
+      </c>
+      <c r="D11" s="7">
+        <v>65494</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
         <v>103</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>71279</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="7">
-        <v>94</v>
-      </c>
-      <c r="I11" s="7">
-        <v>65494</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>197</v>
@@ -2979,13 +2967,13 @@
         <v>136773</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,34 +2982,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>196</v>
+      </c>
+      <c r="D12" s="7">
+        <v>137634</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7">
         <v>203</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>140662</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7">
-        <v>196</v>
-      </c>
-      <c r="I12" s="7">
-        <v>137634</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
         <v>399</v>
@@ -3030,13 +3018,13 @@
         <v>278296</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,34 +3035,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7">
+        <v>42249</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="7">
         <v>92</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>61192</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="7">
-        <v>59</v>
-      </c>
-      <c r="I13" s="7">
-        <v>42249</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -3083,13 +3071,13 @@
         <v>103441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,34 +3086,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>164</v>
+      </c>
+      <c r="D14" s="7">
+        <v>115225</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="7">
         <v>147</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>100903</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="7">
-        <v>164</v>
-      </c>
-      <c r="I14" s="7">
-        <v>115225</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>311</v>
@@ -3134,13 +3122,13 @@
         <v>216128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,34 +3137,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157474</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7">
         <v>239</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>162095</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157474</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>462</v>
@@ -3185,13 +3173,13 @@
         <v>319569</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,34 +3190,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>317</v>
+      </c>
+      <c r="D16" s="7">
+        <v>222166</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="7">
         <v>404</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>280991</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="7">
-        <v>317</v>
-      </c>
-      <c r="I16" s="7">
-        <v>222166</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>721</v>
@@ -3238,13 +3226,13 @@
         <v>503157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,34 +3241,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>440</v>
+      </c>
+      <c r="D17" s="7">
+        <v>304864</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="7">
         <v>395</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>275620</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="7">
-        <v>440</v>
-      </c>
-      <c r="I17" s="7">
-        <v>304864</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>835</v>
@@ -3289,13 +3277,13 @@
         <v>580484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,34 +3292,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>757</v>
+      </c>
+      <c r="D18" s="7">
+        <v>527030</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7">
         <v>799</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>556611</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="7">
-        <v>757</v>
-      </c>
-      <c r="I18" s="7">
-        <v>527030</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>1556</v>
@@ -3340,13 +3328,13 @@
         <v>1083641</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,7 +3359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376A5F4-1A9B-4B33-970B-52526553E493}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801CE8F6-6B9A-4710-979D-1539F6A41B26}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3388,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3492,31 +3480,31 @@
         <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>15938</v>
+        <v>15434</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>15434</v>
+        <v>15938</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -3525,13 +3513,13 @@
         <v>31372</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,34 +3528,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18232</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="7">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>15856</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="7">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18232</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
@@ -3576,13 +3564,13 @@
         <v>34088</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,34 +3579,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>33666</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
         <v>48</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>31794</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>33666</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>103</v>
@@ -3627,51 +3615,51 @@
         <v>65460</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>116</v>
+      </c>
+      <c r="D7" s="7">
+        <v>74694</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="7">
         <v>165</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>110830</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="7">
-        <v>116</v>
-      </c>
-      <c r="I7" s="7">
-        <v>74694</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -3680,13 +3668,13 @@
         <v>185525</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,34 +3683,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>175</v>
+      </c>
+      <c r="D8" s="7">
+        <v>109926</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="7">
         <v>170</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>115427</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="H8" s="7">
-        <v>175</v>
-      </c>
-      <c r="I8" s="7">
-        <v>109926</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>345</v>
@@ -3731,13 +3719,13 @@
         <v>225352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,34 +3734,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>291</v>
+      </c>
+      <c r="D9" s="7">
+        <v>184620</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7">
         <v>335</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>226257</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="7">
-        <v>291</v>
-      </c>
-      <c r="I9" s="7">
-        <v>184620</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>626</v>
@@ -3782,13 +3770,13 @@
         <v>410877</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,34 +3787,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>95</v>
+      </c>
+      <c r="D10" s="7">
+        <v>66392</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="7">
         <v>119</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>86082</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="7">
-        <v>95</v>
-      </c>
-      <c r="I10" s="7">
-        <v>66392</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -3835,13 +3823,13 @@
         <v>152474</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,34 +3838,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>149</v>
+      </c>
+      <c r="D11" s="7">
+        <v>104461</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="7">
         <v>121</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>85798</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H11" s="7">
-        <v>149</v>
-      </c>
-      <c r="I11" s="7">
-        <v>104461</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>270</v>
@@ -3886,13 +3874,13 @@
         <v>190259</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,34 +3889,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>244</v>
+      </c>
+      <c r="D12" s="7">
+        <v>170853</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7">
         <v>240</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>171880</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7">
-        <v>244</v>
-      </c>
-      <c r="I12" s="7">
-        <v>170853</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
         <v>484</v>
@@ -3937,13 +3925,13 @@
         <v>342733</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,34 +3942,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7">
+        <v>33346</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="7">
         <v>64</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>48322</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="7">
-        <v>48</v>
-      </c>
-      <c r="I13" s="7">
-        <v>33346</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -3990,13 +3978,13 @@
         <v>81667</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,34 +3993,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>173</v>
+      </c>
+      <c r="D14" s="7">
+        <v>121918</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="7">
         <v>144</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>105681</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H14" s="7">
-        <v>173</v>
-      </c>
-      <c r="I14" s="7">
-        <v>121918</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -4041,13 +4029,13 @@
         <v>227599</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,34 +4044,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>221</v>
+      </c>
+      <c r="D15" s="7">
+        <v>155264</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7">
         <v>208</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>154003</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="7">
-        <v>221</v>
-      </c>
-      <c r="I15" s="7">
-        <v>155264</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>429</v>
@@ -4092,13 +4080,13 @@
         <v>309266</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,34 +4097,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>283</v>
+      </c>
+      <c r="D16" s="7">
+        <v>189866</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="7">
         <v>372</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>261173</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="7">
-        <v>283</v>
-      </c>
-      <c r="I16" s="7">
-        <v>189866</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>655</v>
@@ -4145,13 +4133,13 @@
         <v>451038</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,34 +4148,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>528</v>
+      </c>
+      <c r="D17" s="7">
+        <v>354536</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7">
         <v>459</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>322761</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="7">
-        <v>528</v>
-      </c>
-      <c r="I17" s="7">
-        <v>354536</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>987</v>
@@ -4196,13 +4184,13 @@
         <v>677298</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,34 +4199,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>811</v>
+      </c>
+      <c r="D18" s="7">
+        <v>544402</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7">
         <v>831</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>583934</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="7">
-        <v>811</v>
-      </c>
-      <c r="I18" s="7">
-        <v>544402</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>1642</v>
@@ -4247,13 +4235,13 @@
         <v>1128336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E36FE96-7B94-48E0-8C18-1A893B319C87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A71BD-4AAC-4B5A-89D2-335698909D24}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4295,7 +4283,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4396,49 +4384,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9171</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" s="7">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>6191</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>6608</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9382</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>15573</v>
+        <v>15779</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,49 +4435,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16404</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
-        <v>12474</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>12893</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16242</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>28716</v>
+        <v>29297</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,102 +4486,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25575</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
         <v>33</v>
       </c>
-      <c r="D6" s="7">
-        <v>18665</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7">
-        <v>43</v>
-      </c>
       <c r="I6" s="7">
-        <v>25624</v>
+        <v>19501</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
       </c>
       <c r="N6" s="7">
-        <v>44289</v>
+        <v>45076</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>86</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54147</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="7">
         <v>118</v>
       </c>
-      <c r="D7" s="7">
-        <v>76210</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>79687</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H7" s="7">
-        <v>86</v>
-      </c>
-      <c r="I7" s="7">
-        <v>54046</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M7" s="7">
         <v>204</v>
       </c>
       <c r="N7" s="7">
-        <v>130256</v>
+        <v>133834</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,49 +4590,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>146</v>
+      </c>
+      <c r="D8" s="7">
+        <v>84624</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" s="7">
         <v>139</v>
       </c>
-      <c r="D8" s="7">
-        <v>87322</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>89935</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H8" s="7">
-        <v>146</v>
-      </c>
-      <c r="I8" s="7">
-        <v>86028</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
       </c>
       <c r="N8" s="7">
-        <v>173350</v>
+        <v>174559</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,49 +4641,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>232</v>
+      </c>
+      <c r="D9" s="7">
+        <v>138771</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7">
         <v>257</v>
       </c>
-      <c r="D9" s="7">
-        <v>163532</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="7">
-        <v>232</v>
-      </c>
       <c r="I9" s="7">
-        <v>140074</v>
+        <v>169622</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>489</v>
       </c>
       <c r="N9" s="7">
-        <v>303606</v>
+        <v>308393</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,49 +4694,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>77</v>
+      </c>
+      <c r="D10" s="7">
+        <v>57763</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="7">
         <v>94</v>
       </c>
-      <c r="D10" s="7">
-        <v>76107</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>77808</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="7">
-        <v>77</v>
-      </c>
-      <c r="I10" s="7">
-        <v>57920</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M10" s="7">
         <v>171</v>
       </c>
       <c r="N10" s="7">
-        <v>134027</v>
+        <v>135571</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,49 +4745,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7">
+        <v>104725</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="7">
         <v>122</v>
       </c>
-      <c r="D11" s="7">
-        <v>102724</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>107816</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H11" s="7">
-        <v>141</v>
-      </c>
-      <c r="I11" s="7">
-        <v>107381</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>263</v>
       </c>
       <c r="N11" s="7">
-        <v>210105</v>
+        <v>212541</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,49 +4796,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>218</v>
+      </c>
+      <c r="D12" s="7">
+        <v>162488</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7">
         <v>216</v>
       </c>
-      <c r="D12" s="7">
-        <v>178831</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7">
-        <v>218</v>
-      </c>
       <c r="I12" s="7">
-        <v>165301</v>
+        <v>185624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
         <v>434</v>
       </c>
       <c r="N12" s="7">
-        <v>344132</v>
+        <v>348112</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,49 +4849,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7">
+        <v>41921</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="7">
         <v>92</v>
       </c>
-      <c r="D13" s="7">
-        <v>86652</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>90499</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H13" s="7">
-        <v>56</v>
-      </c>
-      <c r="I13" s="7">
-        <v>41950</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
       </c>
       <c r="N13" s="7">
-        <v>128601</v>
+        <v>132420</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,49 +4900,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>252</v>
+      </c>
+      <c r="D14" s="7">
+        <v>206615</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="7">
         <v>218</v>
       </c>
-      <c r="D14" s="7">
-        <v>176154</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>187606</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H14" s="7">
-        <v>252</v>
-      </c>
-      <c r="I14" s="7">
-        <v>190947</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>470</v>
       </c>
       <c r="N14" s="7">
-        <v>367102</v>
+        <v>394222</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,49 +4951,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>308</v>
+      </c>
+      <c r="D15" s="7">
+        <v>248536</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
-        <v>262806</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="7">
-        <v>308</v>
-      </c>
       <c r="I15" s="7">
-        <v>232897</v>
+        <v>278105</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>618</v>
       </c>
       <c r="N15" s="7">
-        <v>495703</v>
+        <v>526642</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,49 +5004,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>234</v>
+      </c>
+      <c r="D16" s="7">
+        <v>163002</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
         <v>316</v>
       </c>
-      <c r="D16" s="7">
-        <v>245159</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>254601</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="H16" s="7">
-        <v>234</v>
-      </c>
-      <c r="I16" s="7">
-        <v>163297</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>550</v>
       </c>
       <c r="N16" s="7">
-        <v>408456</v>
+        <v>417604</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,49 +5055,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>567</v>
+      </c>
+      <c r="D17" s="7">
+        <v>412368</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H17" s="7">
         <v>500</v>
       </c>
-      <c r="D17" s="7">
-        <v>378675</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>398251</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H17" s="7">
-        <v>567</v>
-      </c>
-      <c r="I17" s="7">
-        <v>400599</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>1067</v>
       </c>
       <c r="N17" s="7">
-        <v>779274</v>
+        <v>810618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,49 +5106,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>801</v>
+      </c>
+      <c r="D18" s="7">
+        <v>575370</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7">
         <v>816</v>
       </c>
-      <c r="D18" s="7">
-        <v>623834</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="7">
-        <v>801</v>
-      </c>
       <c r="I18" s="7">
-        <v>563896</v>
+        <v>652852</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>1617</v>
       </c>
       <c r="N18" s="7">
-        <v>1187730</v>
+        <v>1228222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
